--- a/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_MA abril 29.xlsx
+++ b/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_MA abril 29.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb550905\OneDrive - WBG\Venezuela\ENCOVI\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb563583\GitHub\VEN\data_management\management\2. harmonization\ENCOVI harmonization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="602" documentId="8_{ACFB3605-0592-426C-AE9D-8DABFAB95ACD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{3E322332-7BC7-4725-AB72-F8370219F569}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5E7979-7330-4143-A2AB-588B5AE57377}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="805" firstSheet="6" activeTab="7" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="805" activeTab="4" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Control_entrevista" sheetId="4" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="Seguridad Alimentaria" sheetId="15" r:id="rId15"/>
     <sheet name="Antropometría" sheetId="17" r:id="rId16"/>
     <sheet name="Pobreza" sheetId="22" r:id="rId17"/>
+    <sheet name="Social Programs" sheetId="23" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2884" uniqueCount="1662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="1662">
   <si>
     <t>Questions</t>
   </si>
@@ -6855,7 +6856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -7395,131 +7396,134 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7852,18 +7856,18 @@
       <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="27.21875" customWidth="1"/>
+    <col min="1" max="4" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="185">
+    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="189">
         <v>2019</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -7880,7 +7884,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
         <v>122</v>
       </c>
@@ -7899,7 +7903,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>131</v>
       </c>
@@ -7918,7 +7922,7 @@
       <c r="H3" s="71"/>
       <c r="I3" s="71"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="71" t="s">
         <v>133</v>
       </c>
@@ -7935,7 +7939,7 @@
       <c r="H4" s="71"/>
       <c r="I4" s="71"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="71" t="s">
         <v>134</v>
       </c>
@@ -7952,7 +7956,7 @@
       <c r="H5" s="71"/>
       <c r="I5" s="71"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="71" t="s">
         <v>140</v>
       </c>
@@ -7969,7 +7973,7 @@
       <c r="H6" s="71"/>
       <c r="I6" s="71"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="71" t="s">
         <v>135</v>
       </c>
@@ -7986,7 +7990,7 @@
       <c r="H7" s="71"/>
       <c r="I7" s="71"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="71" t="s">
         <v>141</v>
       </c>
@@ -8003,7 +8007,7 @@
       <c r="H8" s="71"/>
       <c r="I8" s="71"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="71" t="s">
         <v>148</v>
       </c>
@@ -8020,7 +8024,7 @@
       <c r="H9" s="71"/>
       <c r="I9" s="71"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="71" t="s">
         <v>143</v>
       </c>
@@ -8037,7 +8041,7 @@
       <c r="H10" s="71"/>
       <c r="I10" s="71"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="71" t="s">
         <v>144</v>
       </c>
@@ -8054,7 +8058,7 @@
       <c r="H11" s="71"/>
       <c r="I11" s="71"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="71" t="s">
         <v>153</v>
       </c>
@@ -8071,7 +8075,7 @@
       <c r="H12" s="71"/>
       <c r="I12" s="71"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="71" t="s">
         <v>156</v>
       </c>
@@ -8088,7 +8092,7 @@
       <c r="H13" s="71"/>
       <c r="I13" s="71"/>
     </row>
-    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="69" t="s">
         <v>150</v>
       </c>
@@ -8107,7 +8111,7 @@
       <c r="H14" s="71"/>
       <c r="I14" s="71"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="71" t="s">
         <v>1023</v>
       </c>
@@ -8124,7 +8128,7 @@
       <c r="H15" s="71"/>
       <c r="I15" s="71"/>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="69" t="s">
         <v>160</v>
       </c>
@@ -8143,7 +8147,7 @@
       <c r="H16" s="71"/>
       <c r="I16" s="71"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="71" t="s">
         <v>161</v>
       </c>
@@ -8160,7 +8164,7 @@
       <c r="H17" s="71"/>
       <c r="I17" s="71"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="71" t="s">
         <v>164</v>
       </c>
@@ -8177,7 +8181,7 @@
       <c r="H18" s="71"/>
       <c r="I18" s="71"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="71" t="s">
         <v>165</v>
       </c>
@@ -8194,7 +8198,7 @@
       <c r="H19" s="71"/>
       <c r="I19" s="71"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="71" t="s">
         <v>171</v>
       </c>
@@ -8207,7 +8211,7 @@
       <c r="H20" s="71"/>
       <c r="I20" s="71"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="71" t="s">
         <v>172</v>
       </c>
@@ -8220,7 +8224,7 @@
       <c r="H21" s="71"/>
       <c r="I21" s="71"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="71" t="s">
         <v>173</v>
       </c>
@@ -8233,7 +8237,7 @@
       <c r="H22" s="71"/>
       <c r="I22" s="71"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="71" t="s">
         <v>174</v>
       </c>
@@ -8246,7 +8250,7 @@
       <c r="H23" s="71"/>
       <c r="I23" s="71"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="71" t="s">
         <v>175</v>
       </c>
@@ -8259,7 +8263,7 @@
       <c r="H24" s="71"/>
       <c r="I24" s="71"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="71" t="s">
         <v>176</v>
       </c>
@@ -8272,7 +8276,7 @@
       <c r="H25" s="71"/>
       <c r="I25" s="71"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="71" t="s">
         <v>177</v>
       </c>
@@ -8285,7 +8289,7 @@
       <c r="H26" s="71"/>
       <c r="I26" s="71"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="71" t="s">
         <v>178</v>
       </c>
@@ -8298,7 +8302,7 @@
       <c r="H27" s="71"/>
       <c r="I27" s="71"/>
     </row>
-    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="69" t="s">
         <v>179</v>
       </c>
@@ -8315,7 +8319,7 @@
       <c r="H28" s="71"/>
       <c r="I28" s="71"/>
     </row>
-    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="69" t="s">
         <v>181</v>
       </c>
@@ -8332,7 +8336,7 @@
       <c r="H29" s="71"/>
       <c r="I29" s="71"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="71" t="s">
         <v>1024</v>
       </c>
@@ -8347,7 +8351,7 @@
       <c r="H30" s="71"/>
       <c r="I30" s="71"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="71" t="s">
         <v>184</v>
       </c>
@@ -8360,7 +8364,7 @@
       <c r="H31" s="71"/>
       <c r="I31" s="71"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="71" t="s">
         <v>185</v>
       </c>
@@ -8373,7 +8377,7 @@
       <c r="H32" s="71"/>
       <c r="I32" s="71"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="71" t="s">
         <v>186</v>
       </c>
@@ -8386,7 +8390,7 @@
       <c r="H33" s="71"/>
       <c r="I33" s="71"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="71" t="s">
         <v>187</v>
       </c>
@@ -8401,7 +8405,7 @@
       <c r="H34" s="71"/>
       <c r="I34" s="71"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="71" t="s">
         <v>188</v>
       </c>
@@ -8414,7 +8418,7 @@
       <c r="H35" s="71"/>
       <c r="I35" s="71"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="71" t="s">
         <v>189</v>
       </c>
@@ -8427,7 +8431,7 @@
       <c r="H36" s="71"/>
       <c r="I36" s="71"/>
     </row>
-    <row r="37" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="142" t="s">
         <v>401</v>
       </c>
@@ -8460,18 +8464,18 @@
       <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="31.77734375" customWidth="1"/>
+    <col min="1" max="4" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="185">
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="189">
         <v>2019</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -8488,7 +8492,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
         <v>122</v>
       </c>
@@ -8507,7 +8511,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>365</v>
       </c>
@@ -8536,7 +8540,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>367</v>
       </c>
@@ -8563,7 +8567,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>366</v>
       </c>
@@ -8584,7 +8588,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="69" t="s">
         <v>373</v>
       </c>
@@ -8605,7 +8609,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="69" t="s">
         <v>374</v>
       </c>
@@ -8626,7 +8630,7 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A8" s="69" t="s">
         <v>383</v>
       </c>
@@ -8647,7 +8651,7 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
         <v>384</v>
       </c>
@@ -8668,7 +8672,7 @@
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="69" t="s">
         <v>385</v>
       </c>
@@ -8689,7 +8693,7 @@
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="69" t="s">
         <v>386</v>
       </c>
@@ -8710,15 +8714,15 @@
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
@@ -8738,24 +8742,24 @@
       <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="24" style="6" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" style="36" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="17" customWidth="1"/>
     <col min="5" max="9" width="24" style="6" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.77734375" style="6"/>
+    <col min="10" max="10" width="17.28515625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="185">
+    <row r="1" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="189">
         <v>2019</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -8772,7 +8776,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>122</v>
       </c>
@@ -8785,16 +8789,16 @@
       <c r="D2" s="61" t="s">
         <v>347</v>
       </c>
-      <c r="E2" s="217" t="s">
+      <c r="E2" s="221" t="s">
         <v>785</v>
       </c>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
       <c r="J2" s="51"/>
     </row>
-    <row r="3" spans="1:10" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
         <v>786</v>
       </c>
@@ -8822,7 +8826,7 @@
       </c>
       <c r="J3" s="54"/>
     </row>
-    <row r="4" spans="1:10" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
         <v>789</v>
       </c>
@@ -8850,7 +8854,7 @@
       </c>
       <c r="J4" s="54"/>
     </row>
-    <row r="5" spans="1:10" s="52" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="52" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
         <v>1567</v>
       </c>
@@ -8880,7 +8884,7 @@
       </c>
       <c r="J5" s="54"/>
     </row>
-    <row r="6" spans="1:10" s="52" customFormat="1" ht="81.599999999999994" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="52" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
         <v>1569</v>
       </c>
@@ -8910,7 +8914,7 @@
       </c>
       <c r="J6" s="54"/>
     </row>
-    <row r="7" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
         <v>1571</v>
       </c>
@@ -8938,7 +8942,7 @@
       </c>
       <c r="J7" s="54"/>
     </row>
-    <row r="8" spans="1:10" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="52" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
         <v>1573</v>
       </c>
@@ -8966,7 +8970,7 @@
       </c>
       <c r="J8" s="54"/>
     </row>
-    <row r="9" spans="1:10" s="52" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="52" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
         <v>1575</v>
       </c>
@@ -8996,7 +9000,7 @@
       </c>
       <c r="J9" s="54"/>
     </row>
-    <row r="10" spans="1:10" s="52" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="52" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
         <v>1577</v>
       </c>
@@ -9024,7 +9028,7 @@
       </c>
       <c r="J10" s="54"/>
     </row>
-    <row r="11" spans="1:10" s="52" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="52" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
         <v>1579</v>
       </c>
@@ -9053,7 +9057,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="52" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="52" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A12" s="62" t="s">
         <v>1581</v>
       </c>
@@ -9080,7 +9084,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C13" s="56"/>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
@@ -9089,7 +9093,7 @@
       <c r="H13" s="53"/>
       <c r="I13" s="53"/>
     </row>
-    <row r="14" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="56"/>
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
@@ -9098,7 +9102,7 @@
       <c r="H14" s="53"/>
       <c r="I14" s="53"/>
     </row>
-    <row r="15" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15" s="56"/>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
@@ -9107,7 +9111,7 @@
       <c r="H15" s="53"/>
       <c r="I15" s="53"/>
     </row>
-    <row r="16" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="56"/>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
@@ -9116,7 +9120,7 @@
       <c r="H16" s="53"/>
       <c r="I16" s="53"/>
     </row>
-    <row r="17" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="56"/>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
@@ -9125,7 +9129,7 @@
       <c r="H17" s="53"/>
       <c r="I17" s="53"/>
     </row>
-    <row r="18" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="56"/>
       <c r="D18" s="55"/>
       <c r="E18" s="53"/>
@@ -9134,7 +9138,7 @@
       <c r="H18" s="53"/>
       <c r="I18" s="53"/>
     </row>
-    <row r="19" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="56"/>
       <c r="D19" s="55"/>
       <c r="E19" s="53"/>
@@ -9143,7 +9147,7 @@
       <c r="H19" s="53"/>
       <c r="I19" s="53"/>
     </row>
-    <row r="20" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="56"/>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
@@ -9152,7 +9156,7 @@
       <c r="H20" s="53"/>
       <c r="I20" s="53"/>
     </row>
-    <row r="21" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="56"/>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
@@ -9161,7 +9165,7 @@
       <c r="H21" s="53"/>
       <c r="I21" s="53"/>
     </row>
-    <row r="22" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
       <c r="C22" s="56"/>
       <c r="D22" s="55"/>
@@ -9171,7 +9175,7 @@
       <c r="H22" s="53"/>
       <c r="I22" s="53"/>
     </row>
-    <row r="23" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
       <c r="C23" s="56"/>
       <c r="D23" s="55"/>
@@ -9181,7 +9185,7 @@
       <c r="H23" s="53"/>
       <c r="I23" s="53"/>
     </row>
-    <row r="24" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="57"/>
       <c r="C24" s="56"/>
       <c r="D24" s="55"/>
@@ -9191,7 +9195,7 @@
       <c r="H24" s="53"/>
       <c r="I24" s="53"/>
     </row>
-    <row r="25" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
       <c r="C25" s="56"/>
       <c r="D25" s="55"/>
@@ -9201,7 +9205,7 @@
       <c r="H25" s="53"/>
       <c r="I25" s="53"/>
     </row>
-    <row r="26" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
       <c r="C26" s="56"/>
       <c r="D26" s="55"/>
@@ -9211,7 +9215,7 @@
       <c r="H26" s="53"/>
       <c r="I26" s="53"/>
     </row>
-    <row r="27" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="57"/>
       <c r="C27" s="56"/>
       <c r="D27" s="55"/>
@@ -9221,7 +9225,7 @@
       <c r="H27" s="53"/>
       <c r="I27" s="53"/>
     </row>
-    <row r="28" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
       <c r="C28" s="56"/>
       <c r="D28" s="55"/>
@@ -9231,7 +9235,7 @@
       <c r="H28" s="53"/>
       <c r="I28" s="53"/>
     </row>
-    <row r="29" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
       <c r="C29" s="56"/>
       <c r="D29" s="55"/>
@@ -9241,7 +9245,7 @@
       <c r="H29" s="53"/>
       <c r="I29" s="53"/>
     </row>
-    <row r="30" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="57"/>
       <c r="C30" s="56"/>
       <c r="D30" s="55"/>
@@ -9251,7 +9255,7 @@
       <c r="H30" s="53"/>
       <c r="I30" s="53"/>
     </row>
-    <row r="31" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
       <c r="B31" s="58"/>
       <c r="C31" s="56"/>
@@ -9262,7 +9266,7 @@
       <c r="H31" s="53"/>
       <c r="I31" s="53"/>
     </row>
-    <row r="32" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
       <c r="B32" s="58"/>
       <c r="C32" s="56"/>
@@ -9273,7 +9277,7 @@
       <c r="H32" s="53"/>
       <c r="I32" s="53"/>
     </row>
-    <row r="33" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="56"/>
       <c r="D33" s="55"/>
       <c r="E33" s="53"/>
@@ -9282,7 +9286,7 @@
       <c r="H33" s="53"/>
       <c r="I33" s="53"/>
     </row>
-    <row r="34" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="54"/>
       <c r="C34" s="56"/>
       <c r="D34" s="55"/>
@@ -9292,7 +9296,7 @@
       <c r="H34" s="53"/>
       <c r="I34" s="53"/>
     </row>
-    <row r="35" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="54"/>
       <c r="C35" s="56"/>
       <c r="D35" s="55"/>
@@ -9302,7 +9306,7 @@
       <c r="H35" s="53"/>
       <c r="I35" s="53"/>
     </row>
-    <row r="36" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="56"/>
       <c r="D36" s="55"/>
       <c r="E36" s="53"/>
@@ -9311,7 +9315,7 @@
       <c r="H36" s="53"/>
       <c r="I36" s="53"/>
     </row>
-    <row r="37" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="54"/>
       <c r="C37" s="56"/>
       <c r="D37" s="55"/>
@@ -9321,7 +9325,7 @@
       <c r="H37" s="53"/>
       <c r="I37" s="53"/>
     </row>
-    <row r="38" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="54"/>
       <c r="C38" s="56"/>
       <c r="D38" s="55"/>
@@ -9331,7 +9335,7 @@
       <c r="H38" s="53"/>
       <c r="I38" s="53"/>
     </row>
-    <row r="39" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="56"/>
       <c r="D39" s="55"/>
       <c r="E39" s="53"/>
@@ -9340,7 +9344,7 @@
       <c r="H39" s="53"/>
       <c r="I39" s="53"/>
     </row>
-    <row r="40" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="54"/>
       <c r="C40" s="56"/>
       <c r="D40" s="55"/>
@@ -9350,7 +9354,7 @@
       <c r="H40" s="53"/>
       <c r="I40" s="53"/>
     </row>
-    <row r="41" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="54"/>
       <c r="C41" s="56"/>
       <c r="D41" s="55"/>
@@ -9360,7 +9364,7 @@
       <c r="H41" s="53"/>
       <c r="I41" s="53"/>
     </row>
-    <row r="42" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="56"/>
       <c r="D42" s="55"/>
       <c r="E42" s="53"/>
@@ -9369,7 +9373,7 @@
       <c r="H42" s="53"/>
       <c r="I42" s="53"/>
     </row>
-    <row r="43" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="54"/>
       <c r="C43" s="56"/>
       <c r="D43" s="55"/>
@@ -9379,7 +9383,7 @@
       <c r="H43" s="53"/>
       <c r="I43" s="53"/>
     </row>
-    <row r="44" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="54"/>
       <c r="C44" s="56"/>
       <c r="D44" s="55"/>
@@ -9389,7 +9393,7 @@
       <c r="H44" s="53"/>
       <c r="I44" s="53"/>
     </row>
-    <row r="45" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="56"/>
       <c r="D45" s="55"/>
       <c r="E45" s="53"/>
@@ -9398,7 +9402,7 @@
       <c r="H45" s="53"/>
       <c r="I45" s="53"/>
     </row>
-    <row r="46" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="54"/>
       <c r="C46" s="56"/>
       <c r="D46" s="55"/>
@@ -9408,7 +9412,7 @@
       <c r="H46" s="53"/>
       <c r="I46" s="53"/>
     </row>
-    <row r="47" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="56"/>
       <c r="D47" s="55"/>
       <c r="E47" s="55"/>
@@ -9417,7 +9421,7 @@
       <c r="H47" s="53"/>
       <c r="I47" s="53"/>
     </row>
-    <row r="48" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="56"/>
       <c r="D48" s="55"/>
       <c r="E48" s="53"/>
@@ -9426,7 +9430,7 @@
       <c r="H48" s="53"/>
       <c r="I48" s="53"/>
     </row>
-    <row r="49" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="56"/>
       <c r="D49" s="55"/>
       <c r="E49" s="53"/>
@@ -9435,7 +9439,7 @@
       <c r="H49" s="53"/>
       <c r="I49" s="53"/>
     </row>
-    <row r="50" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="56"/>
       <c r="D50" s="55"/>
       <c r="E50" s="53"/>
@@ -9444,7 +9448,7 @@
       <c r="H50" s="53"/>
       <c r="I50" s="53"/>
     </row>
-    <row r="51" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="56"/>
       <c r="D51" s="55"/>
       <c r="E51" s="53"/>
@@ -9453,7 +9457,7 @@
       <c r="H51" s="53"/>
       <c r="I51" s="53"/>
     </row>
-    <row r="52" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="56"/>
       <c r="D52" s="55"/>
       <c r="E52" s="53"/>
@@ -9462,7 +9466,7 @@
       <c r="H52" s="53"/>
       <c r="I52" s="53"/>
     </row>
-    <row r="53" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="56"/>
       <c r="D53" s="55"/>
       <c r="E53" s="55"/>
@@ -9471,7 +9475,7 @@
       <c r="H53" s="53"/>
       <c r="I53" s="53"/>
     </row>
-    <row r="54" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="56"/>
       <c r="D54" s="55"/>
       <c r="E54" s="55"/>
@@ -9480,7 +9484,7 @@
       <c r="H54" s="53"/>
       <c r="I54" s="53"/>
     </row>
-    <row r="55" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="56"/>
       <c r="D55" s="55"/>
       <c r="E55" s="53"/>
@@ -9489,7 +9493,7 @@
       <c r="H55" s="53"/>
       <c r="I55" s="53"/>
     </row>
-    <row r="56" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="54"/>
       <c r="C56" s="56"/>
       <c r="D56" s="55"/>
@@ -9517,27 +9521,27 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="218">
+    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="222">
         <v>2019</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="220"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="224"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -9554,7 +9558,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
         <v>122</v>
       </c>
@@ -9573,7 +9577,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>682</v>
       </c>
@@ -9592,7 +9596,7 @@
       <c r="H3" s="122"/>
       <c r="I3" s="122"/>
     </row>
-    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
         <v>684</v>
       </c>
@@ -9615,7 +9619,7 @@
       <c r="H4" s="122"/>
       <c r="I4" s="122"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
         <v>688</v>
       </c>
@@ -9636,7 +9640,7 @@
       <c r="H5" s="122"/>
       <c r="I5" s="122"/>
     </row>
-    <row r="6" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="69" t="s">
         <v>690</v>
       </c>
@@ -9657,7 +9661,7 @@
       <c r="H6" s="122"/>
       <c r="I6" s="122"/>
     </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="69" t="s">
         <v>691</v>
       </c>
@@ -9676,7 +9680,7 @@
       <c r="H7" s="122"/>
       <c r="I7" s="122"/>
     </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="69" t="s">
         <v>693</v>
       </c>
@@ -9697,7 +9701,7 @@
       <c r="H8" s="122"/>
       <c r="I8" s="122"/>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>696</v>
       </c>
@@ -9716,7 +9720,7 @@
       <c r="H9" s="67"/>
       <c r="I9" s="67"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="71" t="s">
         <v>699</v>
       </c>
@@ -9733,7 +9737,7 @@
       <c r="H10" s="122"/>
       <c r="I10" s="122"/>
     </row>
-    <row r="11" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A11" s="69" t="s">
         <v>701</v>
       </c>
@@ -9752,7 +9756,7 @@
       <c r="H11" s="122"/>
       <c r="I11" s="122"/>
     </row>
-    <row r="12" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A12" s="69" t="s">
         <v>704</v>
       </c>
@@ -9771,7 +9775,7 @@
       <c r="H12" s="122"/>
       <c r="I12" s="122"/>
     </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="69" t="s">
         <v>706</v>
       </c>
@@ -9788,7 +9792,7 @@
       <c r="H13" s="122"/>
       <c r="I13" s="122"/>
     </row>
-    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="69" t="s">
         <v>707</v>
       </c>
@@ -9807,7 +9811,7 @@
       <c r="H14" s="122"/>
       <c r="I14" s="122"/>
     </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="69" t="s">
         <v>709</v>
       </c>
@@ -9824,7 +9828,7 @@
       <c r="H15" s="122"/>
       <c r="I15" s="122"/>
     </row>
-    <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="69" t="s">
         <v>710</v>
       </c>
@@ -9841,7 +9845,7 @@
       <c r="H16" s="122"/>
       <c r="I16" s="122"/>
     </row>
-    <row r="17" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="69" t="s">
         <v>711</v>
       </c>
@@ -9855,7 +9859,7 @@
       <c r="H17" s="122"/>
       <c r="I17" s="122"/>
     </row>
-    <row r="18" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
         <v>712</v>
       </c>
@@ -9874,7 +9878,7 @@
       <c r="H18" s="122"/>
       <c r="I18" s="122"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="71" t="s">
         <v>715</v>
       </c>
@@ -9891,7 +9895,7 @@
       <c r="H19" s="122"/>
       <c r="I19" s="122"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="71" t="s">
         <v>717</v>
       </c>
@@ -9908,7 +9912,7 @@
       <c r="H20" s="122"/>
       <c r="I20" s="122"/>
     </row>
-    <row r="21" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
         <v>719</v>
       </c>
@@ -9927,7 +9931,7 @@
       <c r="H21" s="123"/>
       <c r="I21" s="123"/>
     </row>
-    <row r="22" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="69" t="s">
         <v>721</v>
       </c>
@@ -9946,7 +9950,7 @@
       <c r="H22" s="122"/>
       <c r="I22" s="122"/>
     </row>
-    <row r="23" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A23" s="69" t="s">
         <v>724</v>
       </c>
@@ -9967,7 +9971,7 @@
       <c r="H23" s="122"/>
       <c r="I23" s="122"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="71" t="s">
         <v>726</v>
       </c>
@@ -9984,7 +9988,7 @@
       <c r="H24" s="122"/>
       <c r="I24" s="122"/>
     </row>
-    <row r="25" spans="1:9" s="6" customFormat="1" ht="374.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="6" customFormat="1" ht="374.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="69" t="s">
         <v>728</v>
       </c>
@@ -10003,7 +10007,7 @@
       <c r="H25" s="123"/>
       <c r="I25" s="123"/>
     </row>
-    <row r="26" spans="1:9" ht="379.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="379.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="64" t="s">
         <v>730</v>
       </c>
@@ -10022,7 +10026,7 @@
       <c r="H26" s="122"/>
       <c r="I26" s="122"/>
     </row>
-    <row r="27" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="64" t="s">
         <v>731</v>
       </c>
@@ -10041,7 +10045,7 @@
       <c r="H27" s="122"/>
       <c r="I27" s="122"/>
     </row>
-    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="64" t="s">
         <v>732</v>
       </c>
@@ -10058,7 +10062,7 @@
       <c r="H28" s="122"/>
       <c r="I28" s="122"/>
     </row>
-    <row r="29" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A29" s="64" t="s">
         <v>734</v>
       </c>
@@ -10077,7 +10081,7 @@
       <c r="H29" s="122"/>
       <c r="I29" s="122"/>
     </row>
-    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="64" t="s">
         <v>736</v>
       </c>
@@ -10115,20 +10119,20 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="32" style="6" customWidth="1"/>
     <col min="3" max="3" width="35" style="6" customWidth="1"/>
-    <col min="4" max="4" width="44.44140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="218">
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="222">
         <v>2019</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="220"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="224"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -10145,7 +10149,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
         <v>122</v>
       </c>
@@ -10164,7 +10168,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="80"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>393</v>
       </c>
@@ -10183,7 +10187,7 @@
       <c r="H3" s="71"/>
       <c r="I3" s="71"/>
     </row>
-    <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
         <v>1484</v>
       </c>
@@ -10202,7 +10206,7 @@
       <c r="H4" s="71"/>
       <c r="I4" s="71"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
         <v>1226</v>
       </c>
@@ -10219,7 +10223,7 @@
       <c r="H5" s="71"/>
       <c r="I5" s="71"/>
     </row>
-    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="69" t="s">
         <v>1482</v>
       </c>
@@ -10238,7 +10242,7 @@
       <c r="H6" s="71"/>
       <c r="I6" s="71"/>
     </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="69" t="s">
         <v>1534</v>
       </c>
@@ -10255,7 +10259,7 @@
       <c r="H7" s="71"/>
       <c r="I7" s="71"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="69" t="s">
         <v>1559</v>
       </c>
@@ -10274,7 +10278,7 @@
       <c r="H8" s="71"/>
       <c r="I8" s="71"/>
     </row>
-    <row r="9" spans="1:9" s="10" customFormat="1" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="10" customFormat="1" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="s">
         <v>1510</v>
       </c>
@@ -10284,7 +10288,7 @@
       <c r="C9" s="176" t="s">
         <v>1489</v>
       </c>
-      <c r="D9" s="221" t="s">
+      <c r="D9" s="225" t="s">
         <v>1532</v>
       </c>
       <c r="E9" s="72"/>
@@ -10293,7 +10297,7 @@
       <c r="H9" s="72"/>
       <c r="I9" s="72"/>
     </row>
-    <row r="10" spans="1:9" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="s">
         <v>1512</v>
       </c>
@@ -10303,14 +10307,14 @@
       <c r="C10" s="177" t="s">
         <v>1490</v>
       </c>
-      <c r="D10" s="221"/>
+      <c r="D10" s="225"/>
       <c r="E10" s="72"/>
       <c r="F10" s="72"/>
       <c r="G10" s="72"/>
       <c r="H10" s="72"/>
       <c r="I10" s="72"/>
     </row>
-    <row r="11" spans="1:9" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
         <v>1513</v>
       </c>
@@ -10320,14 +10324,14 @@
       <c r="C11" s="177" t="s">
         <v>1491</v>
       </c>
-      <c r="D11" s="221"/>
+      <c r="D11" s="225"/>
       <c r="E11" s="72"/>
       <c r="F11" s="72"/>
       <c r="G11" s="72"/>
       <c r="H11" s="72"/>
       <c r="I11" s="72"/>
     </row>
-    <row r="12" spans="1:9" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
         <v>1514</v>
       </c>
@@ -10337,14 +10341,14 @@
       <c r="C12" s="177" t="s">
         <v>1492</v>
       </c>
-      <c r="D12" s="221"/>
+      <c r="D12" s="225"/>
       <c r="E12" s="72"/>
       <c r="F12" s="72"/>
       <c r="G12" s="72"/>
       <c r="H12" s="72"/>
       <c r="I12" s="72"/>
     </row>
-    <row r="13" spans="1:9" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="70" t="s">
         <v>1515</v>
       </c>
@@ -10354,14 +10358,14 @@
       <c r="C13" s="177" t="s">
         <v>1493</v>
       </c>
-      <c r="D13" s="221"/>
+      <c r="D13" s="225"/>
       <c r="E13" s="72"/>
       <c r="F13" s="72"/>
       <c r="G13" s="72"/>
       <c r="H13" s="72"/>
       <c r="I13" s="72"/>
     </row>
-    <row r="14" spans="1:9" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
         <v>1516</v>
       </c>
@@ -10371,14 +10375,14 @@
       <c r="C14" s="177" t="s">
         <v>1494</v>
       </c>
-      <c r="D14" s="221"/>
+      <c r="D14" s="225"/>
       <c r="E14" s="72"/>
       <c r="F14" s="72"/>
       <c r="G14" s="72"/>
       <c r="H14" s="72"/>
       <c r="I14" s="72"/>
     </row>
-    <row r="15" spans="1:9" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="s">
         <v>1517</v>
       </c>
@@ -10388,14 +10392,14 @@
       <c r="C15" s="177" t="s">
         <v>1495</v>
       </c>
-      <c r="D15" s="221"/>
+      <c r="D15" s="225"/>
       <c r="E15" s="72"/>
       <c r="F15" s="72"/>
       <c r="G15" s="72"/>
       <c r="H15" s="72"/>
       <c r="I15" s="72"/>
     </row>
-    <row r="16" spans="1:9" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="s">
         <v>1518</v>
       </c>
@@ -10405,14 +10409,14 @@
       <c r="C16" s="177" t="s">
         <v>1496</v>
       </c>
-      <c r="D16" s="221"/>
+      <c r="D16" s="225"/>
       <c r="E16" s="72"/>
       <c r="F16" s="72"/>
       <c r="G16" s="72"/>
       <c r="H16" s="72"/>
       <c r="I16" s="72"/>
     </row>
-    <row r="17" spans="1:9" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
         <v>1519</v>
       </c>
@@ -10422,14 +10426,14 @@
       <c r="C17" s="177" t="s">
         <v>1497</v>
       </c>
-      <c r="D17" s="221"/>
+      <c r="D17" s="225"/>
       <c r="E17" s="72"/>
       <c r="F17" s="72"/>
       <c r="G17" s="72"/>
       <c r="H17" s="72"/>
       <c r="I17" s="72"/>
     </row>
-    <row r="18" spans="1:9" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
         <v>1520</v>
       </c>
@@ -10439,14 +10443,14 @@
       <c r="C18" s="177" t="s">
         <v>1498</v>
       </c>
-      <c r="D18" s="221"/>
+      <c r="D18" s="225"/>
       <c r="E18" s="72"/>
       <c r="F18" s="72"/>
       <c r="G18" s="72"/>
       <c r="H18" s="72"/>
       <c r="I18" s="72"/>
     </row>
-    <row r="19" spans="1:9" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
         <v>1521</v>
       </c>
@@ -10456,14 +10460,14 @@
       <c r="C19" s="177" t="s">
         <v>1499</v>
       </c>
-      <c r="D19" s="221"/>
+      <c r="D19" s="225"/>
       <c r="E19" s="72"/>
       <c r="F19" s="72"/>
       <c r="G19" s="72"/>
       <c r="H19" s="72"/>
       <c r="I19" s="72"/>
     </row>
-    <row r="20" spans="1:9" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
         <v>1522</v>
       </c>
@@ -10473,14 +10477,14 @@
       <c r="C20" s="177" t="s">
         <v>1500</v>
       </c>
-      <c r="D20" s="221"/>
+      <c r="D20" s="225"/>
       <c r="E20" s="72"/>
       <c r="F20" s="72"/>
       <c r="G20" s="72"/>
       <c r="H20" s="72"/>
       <c r="I20" s="72"/>
     </row>
-    <row r="21" spans="1:9" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
         <v>1523</v>
       </c>
@@ -10490,14 +10494,14 @@
       <c r="C21" s="177" t="s">
         <v>1501</v>
       </c>
-      <c r="D21" s="221"/>
+      <c r="D21" s="225"/>
       <c r="E21" s="72"/>
       <c r="F21" s="72"/>
       <c r="G21" s="72"/>
       <c r="H21" s="72"/>
       <c r="I21" s="72"/>
     </row>
-    <row r="22" spans="1:9" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
         <v>1524</v>
       </c>
@@ -10507,14 +10511,14 @@
       <c r="C22" s="177" t="s">
         <v>1502</v>
       </c>
-      <c r="D22" s="221"/>
+      <c r="D22" s="225"/>
       <c r="E22" s="72"/>
       <c r="F22" s="72"/>
       <c r="G22" s="72"/>
       <c r="H22" s="72"/>
       <c r="I22" s="72"/>
     </row>
-    <row r="23" spans="1:9" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="70" t="s">
         <v>1525</v>
       </c>
@@ -10524,14 +10528,14 @@
       <c r="C23" s="177" t="s">
         <v>1503</v>
       </c>
-      <c r="D23" s="221"/>
+      <c r="D23" s="225"/>
       <c r="E23" s="72"/>
       <c r="F23" s="72"/>
       <c r="G23" s="72"/>
       <c r="H23" s="72"/>
       <c r="I23" s="72"/>
     </row>
-    <row r="24" spans="1:9" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
         <v>1526</v>
       </c>
@@ -10541,14 +10545,14 @@
       <c r="C24" s="177" t="s">
         <v>1504</v>
       </c>
-      <c r="D24" s="221"/>
+      <c r="D24" s="225"/>
       <c r="E24" s="72"/>
       <c r="F24" s="72"/>
       <c r="G24" s="72"/>
       <c r="H24" s="72"/>
       <c r="I24" s="72"/>
     </row>
-    <row r="25" spans="1:9" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="70" t="s">
         <v>1527</v>
       </c>
@@ -10558,14 +10562,14 @@
       <c r="C25" s="177" t="s">
         <v>1505</v>
       </c>
-      <c r="D25" s="221"/>
+      <c r="D25" s="225"/>
       <c r="E25" s="72"/>
       <c r="F25" s="72"/>
       <c r="G25" s="72"/>
       <c r="H25" s="72"/>
       <c r="I25" s="72"/>
     </row>
-    <row r="26" spans="1:9" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="70" t="s">
         <v>1528</v>
       </c>
@@ -10575,14 +10579,14 @@
       <c r="C26" s="177" t="s">
         <v>1506</v>
       </c>
-      <c r="D26" s="221"/>
+      <c r="D26" s="225"/>
       <c r="E26" s="72"/>
       <c r="F26" s="72"/>
       <c r="G26" s="72"/>
       <c r="H26" s="72"/>
       <c r="I26" s="72"/>
     </row>
-    <row r="27" spans="1:9" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="70" t="s">
         <v>1529</v>
       </c>
@@ -10592,14 +10596,14 @@
       <c r="C27" s="177" t="s">
         <v>1507</v>
       </c>
-      <c r="D27" s="221"/>
+      <c r="D27" s="225"/>
       <c r="E27" s="72"/>
       <c r="F27" s="72"/>
       <c r="G27" s="72"/>
       <c r="H27" s="72"/>
       <c r="I27" s="72"/>
     </row>
-    <row r="28" spans="1:9" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="70" t="s">
         <v>1530</v>
       </c>
@@ -10609,14 +10613,14 @@
       <c r="C28" s="177" t="s">
         <v>1508</v>
       </c>
-      <c r="D28" s="221"/>
+      <c r="D28" s="225"/>
       <c r="E28" s="72"/>
       <c r="F28" s="72"/>
       <c r="G28" s="72"/>
       <c r="H28" s="72"/>
       <c r="I28" s="72"/>
     </row>
-    <row r="29" spans="1:9" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="70" t="s">
         <v>1531</v>
       </c>
@@ -10626,14 +10630,14 @@
       <c r="C29" s="177" t="s">
         <v>1509</v>
       </c>
-      <c r="D29" s="221"/>
+      <c r="D29" s="225"/>
       <c r="E29" s="72"/>
       <c r="F29" s="72"/>
       <c r="G29" s="72"/>
       <c r="H29" s="72"/>
       <c r="I29" s="72"/>
     </row>
-    <row r="30" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="69" t="s">
         <v>1556</v>
       </c>
@@ -10669,21 +10673,21 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="4" width="18.21875" customWidth="1"/>
+    <col min="1" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="222">
+    <row r="1" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="226">
         <v>2019</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="223"/>
-    </row>
-    <row r="2" spans="1:5" s="50" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="227"/>
+    </row>
+    <row r="2" spans="1:5" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
         <v>122</v>
       </c>
@@ -10698,7 +10702,7 @@
       </c>
       <c r="E2" s="51"/>
     </row>
-    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="s">
         <v>1005</v>
       </c>
@@ -10712,7 +10716,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="71" t="s">
         <v>1006</v>
       </c>
@@ -10745,25 +10749,25 @@
       <selection pane="bottomRight" activeCell="A4" sqref="A4:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="48.88671875" style="10" customWidth="1"/>
-    <col min="5" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="27.88671875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="24.5546875" customWidth="1"/>
-    <col min="9" max="10" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" style="10" customWidth="1"/>
+    <col min="5" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="9" max="10" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="222">
+    <row r="1" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="226">
         <v>2019</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="223"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="227"/>
       <c r="F1" s="60">
         <v>2018</v>
       </c>
@@ -10780,11 +10784,11 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="50" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="225" t="s">
+    <row r="2" spans="1:11" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="229" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="225"/>
+      <c r="B2" s="229"/>
       <c r="C2" s="61" t="s">
         <v>121</v>
       </c>
@@ -10801,11 +10805,11 @@
       <c r="J2" s="82"/>
       <c r="K2" s="51"/>
     </row>
-    <row r="3" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="224" t="s">
+    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="228" t="s">
         <v>810</v>
       </c>
-      <c r="B3" s="224"/>
+      <c r="B3" s="228"/>
       <c r="C3" s="71" t="s">
         <v>824</v>
       </c>
@@ -10831,8 +10835,8 @@
         <v>877</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="224" t="s">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="228" t="s">
         <v>840</v>
       </c>
       <c r="B4" s="70" t="s">
@@ -10863,8 +10867,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="224"/>
+    <row r="5" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="228"/>
       <c r="B5" s="70" t="s">
         <v>812</v>
       </c>
@@ -10893,8 +10897,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="144" x14ac:dyDescent="0.3">
-      <c r="A6" s="224"/>
+    <row r="6" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" s="228"/>
       <c r="B6" s="70" t="s">
         <v>813</v>
       </c>
@@ -10923,8 +10927,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="144" x14ac:dyDescent="0.3">
-      <c r="A7" s="224"/>
+    <row r="7" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A7" s="228"/>
       <c r="B7" s="70" t="s">
         <v>814</v>
       </c>
@@ -10953,8 +10957,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="224"/>
+    <row r="8" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+      <c r="A8" s="228"/>
       <c r="B8" s="70" t="s">
         <v>815</v>
       </c>
@@ -10983,8 +10987,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A9" s="224"/>
+    <row r="9" spans="1:11" ht="330" x14ac:dyDescent="0.25">
+      <c r="A9" s="228"/>
       <c r="B9" s="70" t="s">
         <v>816</v>
       </c>
@@ -11013,8 +11017,8 @@
         <v>878</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="81" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="224"/>
+    <row r="10" spans="1:11" s="81" customFormat="1" ht="300" x14ac:dyDescent="0.25">
+      <c r="A10" s="228"/>
       <c r="B10" s="85" t="s">
         <v>817</v>
       </c>
@@ -11043,8 +11047,8 @@
         <v>878</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="224"/>
+    <row r="11" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+      <c r="A11" s="228"/>
       <c r="B11" s="70" t="s">
         <v>818</v>
       </c>
@@ -11073,8 +11077,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="144" x14ac:dyDescent="0.3">
-      <c r="A12" s="224"/>
+    <row r="12" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A12" s="228"/>
       <c r="B12" s="70" t="s">
         <v>819</v>
       </c>
@@ -11103,8 +11107,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="144" x14ac:dyDescent="0.3">
-      <c r="A13" s="224"/>
+    <row r="13" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A13" s="228"/>
       <c r="B13" s="70" t="s">
         <v>820</v>
       </c>
@@ -11133,8 +11137,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="224"/>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="228"/>
       <c r="B14" s="70" t="s">
         <v>821</v>
       </c>
@@ -11161,8 +11165,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="224"/>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="228"/>
       <c r="B15" s="70" t="s">
         <v>822</v>
       </c>
@@ -11189,11 +11193,11 @@
         <v>401</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="224" t="s">
+    <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="228" t="s">
         <v>823</v>
       </c>
-      <c r="B16" s="224"/>
+      <c r="B16" s="228"/>
       <c r="C16" s="70" t="s">
         <v>855</v>
       </c>
@@ -11241,22 +11245,22 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="10" customWidth="1"/>
     <col min="4" max="4" width="25" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="10"/>
+    <col min="5" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="89" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="208">
+    <row r="1" spans="1:10" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="212">
         <v>2019</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
       <c r="E1" s="83">
         <v>2018</v>
       </c>
@@ -11273,7 +11277,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="50" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="87" t="s">
         <v>122</v>
       </c>
@@ -11293,7 +11297,7 @@
       <c r="I2" s="82"/>
       <c r="J2" s="51"/>
     </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
         <v>891</v>
       </c>
@@ -11312,7 +11316,7 @@
       <c r="H3" s="90"/>
       <c r="I3" s="90"/>
     </row>
-    <row r="4" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="90.75" x14ac:dyDescent="0.3">
       <c r="A4" s="72" t="s">
         <v>892</v>
       </c>
@@ -11333,7 +11337,7 @@
       <c r="H4" s="90"/>
       <c r="I4" s="90"/>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="72" t="s">
         <v>893</v>
       </c>
@@ -11352,7 +11356,7 @@
       <c r="H5" s="90"/>
       <c r="I5" s="90"/>
     </row>
-    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="72" t="s">
         <v>894</v>
       </c>
@@ -11371,7 +11375,7 @@
       <c r="H6" s="90"/>
       <c r="I6" s="90"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="72" t="s">
         <v>895</v>
       </c>
@@ -11388,7 +11392,7 @@
       <c r="H7" s="90"/>
       <c r="I7" s="90"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
         <v>896</v>
       </c>
@@ -11405,7 +11409,7 @@
       <c r="H8" s="90"/>
       <c r="I8" s="90"/>
     </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="72" t="s">
         <v>897</v>
       </c>
@@ -11424,7 +11428,7 @@
       <c r="H9" s="90"/>
       <c r="I9" s="90"/>
     </row>
-    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="72" t="s">
         <v>898</v>
       </c>
@@ -11443,7 +11447,7 @@
       <c r="H10" s="90"/>
       <c r="I10" s="90"/>
     </row>
-    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="72" t="s">
         <v>899</v>
       </c>
@@ -11462,7 +11466,7 @@
       <c r="H11" s="90"/>
       <c r="I11" s="90"/>
     </row>
-    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
         <v>900</v>
       </c>
@@ -11481,7 +11485,7 @@
       <c r="H12" s="90"/>
       <c r="I12" s="90"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="72" t="s">
         <v>888</v>
       </c>
@@ -11498,7 +11502,7 @@
       <c r="H13" s="90"/>
       <c r="I13" s="90"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="72" t="s">
         <v>889</v>
       </c>
@@ -11515,7 +11519,7 @@
       <c r="H14" s="90"/>
       <c r="I14" s="90"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="72" t="s">
         <v>890</v>
       </c>
@@ -11549,44 +11553,633 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1560</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1561</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1562</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1563</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1566</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1564</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1565</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C28148-6B36-46F5-9695-1846C72FEC9F}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="222">
+        <v>2019</v>
+      </c>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="185">
+        <v>2018</v>
+      </c>
+      <c r="F1" s="185">
+        <v>2017</v>
+      </c>
+      <c r="G1" s="185">
+        <v>2016</v>
+      </c>
+      <c r="H1" s="185">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="185">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>681</v>
+      </c>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="s">
+        <v>682</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>683</v>
+      </c>
+      <c r="D3" s="69"/>
+      <c r="E3" s="71" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F3" s="71"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+    </row>
+    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="69" t="s">
+        <v>684</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>685</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>686</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>687</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>687</v>
+      </c>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="69" t="s">
+        <v>688</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>689</v>
+      </c>
+      <c r="D5" s="69"/>
+      <c r="E5" s="71" t="s">
+        <v>687</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>687</v>
+      </c>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+    </row>
+    <row r="6" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
+        <v>690</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69" t="s">
+        <v>687</v>
+      </c>
+      <c r="F6" s="71" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="s">
+        <v>691</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>692</v>
+      </c>
+      <c r="D7" s="69"/>
+      <c r="E7" s="71" t="s">
+        <v>687</v>
+      </c>
+      <c r="F7" s="71"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="69" t="s">
+        <v>693</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>694</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>695</v>
+      </c>
+      <c r="E8" s="71" t="s">
+        <v>687</v>
+      </c>
+      <c r="F8" s="71"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>696</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="71" t="s">
+        <v>699</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>700</v>
+      </c>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+    </row>
+    <row r="11" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A11" s="69" t="s">
+        <v>701</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>702</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>703</v>
+      </c>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+    </row>
+    <row r="12" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="A12" s="69" t="s">
+        <v>704</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>705</v>
+      </c>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="69" t="s">
+        <v>706</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+    </row>
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="69" t="s">
+        <v>707</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>708</v>
+      </c>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="69" t="s">
+        <v>709</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="69" t="s">
+        <v>710</v>
+      </c>
+      <c r="B16" s="72" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+    </row>
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="69" t="s">
+        <v>711</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+    </row>
+    <row r="18" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="A18" s="69" t="s">
+        <v>712</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>713</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>714</v>
+      </c>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
+        <v>715</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>716</v>
+      </c>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="71" t="s">
+        <v>717</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>718</v>
+      </c>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+    </row>
+    <row r="21" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="69" t="s">
+        <v>719</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C21" s="69" t="s">
+        <v>720</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>686</v>
+      </c>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+    </row>
+    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="69" t="s">
+        <v>721</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>722</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>723</v>
+      </c>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+    </row>
+    <row r="23" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A23" s="69" t="s">
+        <v>724</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>725</v>
+      </c>
+      <c r="E23" s="64" t="s">
+        <v>919</v>
+      </c>
+      <c r="F23" s="71"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="71" t="s">
+        <v>726</v>
+      </c>
+      <c r="B24" s="71" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C24" s="71" t="s">
+        <v>727</v>
+      </c>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+    </row>
+    <row r="25" spans="1:9" s="6" customFormat="1" ht="374.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="69" t="s">
+        <v>728</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>729</v>
+      </c>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+    </row>
+    <row r="26" spans="1:9" ht="379.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="64" t="s">
+        <v>730</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>729</v>
+      </c>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+    </row>
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="64" t="s">
+        <v>731</v>
+      </c>
+      <c r="B27" s="72" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>686</v>
+      </c>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="122"/>
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="s">
+        <v>732</v>
+      </c>
+      <c r="B28" s="71" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>733</v>
+      </c>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
+    </row>
+    <row r="29" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A29" s="64" t="s">
+        <v>734</v>
+      </c>
+      <c r="B29" s="71" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>735</v>
+      </c>
+      <c r="D29" s="72" t="s">
+        <v>703</v>
+      </c>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
+    </row>
+    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="64" t="s">
+        <v>736</v>
+      </c>
+      <c r="B30" s="71" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C30" s="72" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D30" s="64" t="s">
+        <v>686</v>
+      </c>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11599,21 +12192,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="185">
+    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="189">
         <v>2019</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -11630,7 +12223,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
         <v>122</v>
       </c>
@@ -11649,7 +12242,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="s">
         <v>190</v>
       </c>
@@ -11666,7 +12259,7 @@
       <c r="H3" s="71"/>
       <c r="I3" s="71"/>
     </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="71" t="s">
         <v>200</v>
       </c>
@@ -11685,7 +12278,7 @@
       <c r="H4" s="71"/>
       <c r="I4" s="71"/>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="71" t="s">
         <v>201</v>
       </c>
@@ -11702,7 +12295,7 @@
       <c r="H5" s="71"/>
       <c r="I5" s="71"/>
     </row>
-    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="71" t="s">
         <v>202</v>
       </c>
@@ -11739,21 +12332,21 @@
       <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="3" width="31.77734375" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" customWidth="1"/>
-    <col min="5" max="9" width="29.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" customWidth="1"/>
+    <col min="5" max="9" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="185">
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="189">
         <v>2019</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -11770,7 +12363,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
         <v>122</v>
       </c>
@@ -11789,7 +12382,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="s">
         <v>251</v>
       </c>
@@ -11802,7 +12395,7 @@
       <c r="H3" s="71"/>
       <c r="I3" s="71"/>
     </row>
-    <row r="4" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
         <v>252</v>
       </c>
@@ -11831,7 +12424,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
         <v>260</v>
       </c>
@@ -11860,7 +12453,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="69" t="s">
         <v>264</v>
       </c>
@@ -11887,7 +12480,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="69" t="s">
         <v>265</v>
       </c>
@@ -11914,7 +12507,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A8" s="69" t="s">
         <v>268</v>
       </c>
@@ -11943,7 +12536,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
         <v>271</v>
       </c>
@@ -11972,7 +12565,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="69" t="s">
         <v>274</v>
       </c>
@@ -12001,7 +12594,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="69" t="s">
         <v>278</v>
       </c>
@@ -12030,7 +12623,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="6" customFormat="1" ht="300" x14ac:dyDescent="0.25">
       <c r="A12" s="69" t="s">
         <v>279</v>
       </c>
@@ -12059,7 +12652,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>284</v>
       </c>
@@ -12088,7 +12681,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="s">
         <v>288</v>
       </c>
@@ -12117,7 +12710,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A15" s="64" t="s">
         <v>290</v>
       </c>
@@ -12146,7 +12739,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="64" t="s">
         <v>293</v>
       </c>
@@ -12175,7 +12768,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="64" t="s">
         <v>296</v>
       </c>
@@ -12204,7 +12797,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="64" t="s">
         <v>299</v>
       </c>
@@ -12233,7 +12826,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
         <v>302</v>
       </c>
@@ -12262,7 +12855,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="64" t="s">
         <v>303</v>
       </c>
@@ -12289,7 +12882,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="64" t="s">
         <v>311</v>
       </c>
@@ -12316,7 +12909,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="64" t="s">
         <v>312</v>
       </c>
@@ -12343,7 +12936,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A23" s="64" t="s">
         <v>313</v>
       </c>
@@ -12372,7 +12965,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="64" t="s">
         <v>314</v>
       </c>
@@ -12399,108 +12992,108 @@
         <v>401</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
@@ -12522,21 +13115,21 @@
       <selection pane="bottomRight" activeCell="E32" sqref="E32:I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="6" customWidth="1"/>
-    <col min="2" max="4" width="31.77734375" style="6" customWidth="1"/>
-    <col min="5" max="9" width="29.109375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.77734375" style="6"/>
+    <col min="1" max="1" width="12.28515625" style="6" customWidth="1"/>
+    <col min="2" max="4" width="31.7109375" style="6" customWidth="1"/>
+    <col min="5" max="9" width="29.140625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="185">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="189">
         <v>2019</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -12553,7 +13146,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
         <v>122</v>
       </c>
@@ -12572,7 +13165,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>90</v>
       </c>
@@ -12601,7 +13194,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
         <v>92</v>
       </c>
@@ -12630,7 +13223,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
         <v>95</v>
       </c>
@@ -12659,7 +13252,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="69" t="s">
         <v>98</v>
       </c>
@@ -12688,17 +13281,17 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="69" t="s">
         <v>1425</v>
       </c>
       <c r="B7" s="69" t="s">
         <v>1417</v>
       </c>
-      <c r="C7" s="190" t="s">
+      <c r="C7" s="194" t="s">
         <v>1431</v>
       </c>
-      <c r="D7" s="190" t="s">
+      <c r="D7" s="194" t="s">
         <v>1423</v>
       </c>
       <c r="E7" s="69" t="s">
@@ -12717,15 +13310,15 @@
         <v>401</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="69" t="s">
         <v>1426</v>
       </c>
       <c r="B8" s="69" t="s">
         <v>1418</v>
       </c>
-      <c r="C8" s="191"/>
-      <c r="D8" s="191"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
       <c r="E8" s="69" t="s">
         <v>401</v>
       </c>
@@ -12742,15 +13335,15 @@
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
         <v>1427</v>
       </c>
       <c r="B9" s="69" t="s">
         <v>1419</v>
       </c>
-      <c r="C9" s="191"/>
-      <c r="D9" s="191"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
       <c r="E9" s="69" t="s">
         <v>401</v>
       </c>
@@ -12767,15 +13360,15 @@
         <v>401</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="69" t="s">
         <v>1428</v>
       </c>
       <c r="B10" s="69" t="s">
         <v>1420</v>
       </c>
-      <c r="C10" s="191"/>
-      <c r="D10" s="191"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="195"/>
       <c r="E10" s="69" t="s">
         <v>401</v>
       </c>
@@ -12792,15 +13385,15 @@
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="69" t="s">
         <v>1429</v>
       </c>
       <c r="B11" s="69" t="s">
         <v>1421</v>
       </c>
-      <c r="C11" s="191"/>
-      <c r="D11" s="191"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="195"/>
       <c r="E11" s="69" t="s">
         <v>401</v>
       </c>
@@ -12817,15 +13410,15 @@
         <v>401</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="69" t="s">
         <v>1430</v>
       </c>
       <c r="B12" s="69" t="s">
         <v>1422</v>
       </c>
-      <c r="C12" s="191"/>
-      <c r="D12" s="192"/>
+      <c r="C12" s="195"/>
+      <c r="D12" s="196"/>
       <c r="E12" s="69" t="s">
         <v>401</v>
       </c>
@@ -12842,14 +13435,14 @@
         <v>401</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="173" t="s">
         <v>1424</v>
       </c>
       <c r="B13" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="C13" s="192"/>
+      <c r="C13" s="196"/>
       <c r="D13" s="174" t="s">
         <v>1432</v>
       </c>
@@ -12869,7 +13462,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A14" s="69" t="s">
         <v>102</v>
       </c>
@@ -12898,14 +13491,14 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="64" t="s">
         <v>1434</v>
       </c>
       <c r="B15" s="64" t="s">
         <v>1437</v>
       </c>
-      <c r="C15" s="193" t="s">
+      <c r="C15" s="197" t="s">
         <v>1442</v>
       </c>
       <c r="D15" s="64" t="s">
@@ -12927,14 +13520,14 @@
         <v>401</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="64" t="s">
         <v>1435</v>
       </c>
       <c r="B16" s="64" t="s">
         <v>1438</v>
       </c>
-      <c r="C16" s="194"/>
+      <c r="C16" s="198"/>
       <c r="D16" s="64" t="s">
         <v>1443</v>
       </c>
@@ -12954,14 +13547,14 @@
         <v>401</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="64" t="s">
         <v>1436</v>
       </c>
       <c r="B17" s="64" t="s">
         <v>1439</v>
       </c>
-      <c r="C17" s="194"/>
+      <c r="C17" s="198"/>
       <c r="D17" s="64" t="s">
         <v>1443</v>
       </c>
@@ -12981,14 +13574,14 @@
         <v>401</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
         <v>1440</v>
       </c>
       <c r="B18" s="64" t="s">
         <v>1441</v>
       </c>
-      <c r="C18" s="194"/>
+      <c r="C18" s="198"/>
       <c r="D18" s="64"/>
       <c r="E18" s="64" t="s">
         <v>401</v>
@@ -13006,14 +13599,14 @@
         <v>401</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
         <v>1447</v>
       </c>
       <c r="B19" s="64" t="s">
         <v>1445</v>
       </c>
-      <c r="C19" s="195"/>
+      <c r="C19" s="199"/>
       <c r="D19" s="64" t="s">
         <v>1446</v>
       </c>
@@ -13033,7 +13626,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
         <v>104</v>
       </c>
@@ -13062,14 +13655,14 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" s="186" t="s">
+    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="190" t="s">
         <v>105</v>
       </c>
       <c r="B21" s="64" t="s">
         <v>1448</v>
       </c>
-      <c r="C21" s="188" t="s">
+      <c r="C21" s="192" t="s">
         <v>106</v>
       </c>
       <c r="D21" s="64" t="s">
@@ -13091,12 +13684,12 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="187"/>
+    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="191"/>
       <c r="B22" s="64" t="s">
         <v>1449</v>
       </c>
-      <c r="C22" s="189"/>
+      <c r="C22" s="193"/>
       <c r="D22" s="64" t="s">
         <v>1450</v>
       </c>
@@ -13116,7 +13709,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="69" t="s">
         <v>123</v>
       </c>
@@ -13143,7 +13736,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="69" t="s">
         <v>124</v>
       </c>
@@ -13172,7 +13765,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="69" t="s">
         <v>125</v>
       </c>
@@ -13199,7 +13792,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="69" t="s">
         <v>126</v>
       </c>
@@ -13226,7 +13819,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
         <v>128</v>
       </c>
@@ -13253,7 +13846,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="69" t="s">
         <v>127</v>
       </c>
@@ -13280,7 +13873,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A29" s="69" t="s">
         <v>129</v>
       </c>
@@ -13309,14 +13902,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="186" t="s">
+    <row r="30" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A30" s="190" t="s">
         <v>216</v>
       </c>
       <c r="B30" s="64" t="s">
         <v>1452</v>
       </c>
-      <c r="C30" s="186" t="s">
+      <c r="C30" s="190" t="s">
         <v>1454</v>
       </c>
       <c r="D30" s="64" t="s">
@@ -13338,12 +13931,12 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="187"/>
+    <row r="31" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A31" s="191"/>
       <c r="B31" s="64" t="s">
         <v>1453</v>
       </c>
-      <c r="C31" s="187"/>
+      <c r="C31" s="191"/>
       <c r="D31" s="64" t="s">
         <v>1457</v>
       </c>
@@ -13363,7 +13956,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="69" t="s">
         <v>219</v>
       </c>
@@ -13390,7 +13983,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="69" t="s">
         <v>220</v>
       </c>
@@ -13419,7 +14012,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A34" s="69" t="s">
         <v>221</v>
       </c>
@@ -13448,7 +14041,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="69" t="s">
         <v>222</v>
       </c>
@@ -13477,7 +14070,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" s="69" t="s">
         <v>224</v>
       </c>
@@ -13506,7 +14099,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="69" t="s">
         <v>227</v>
       </c>
@@ -13533,7 +14126,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="69" t="s">
         <v>229</v>
       </c>
@@ -13562,7 +14155,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A39" s="69" t="s">
         <v>231</v>
       </c>
@@ -13591,7 +14184,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A40" s="64" t="s">
         <v>1465</v>
       </c>
@@ -13620,7 +14213,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="69" t="s">
         <v>234</v>
       </c>
@@ -13649,7 +14242,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="69" t="s">
         <v>235</v>
       </c>
@@ -13678,7 +14271,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="69" t="s">
         <v>236</v>
       </c>
@@ -13707,7 +14300,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A44" s="64" t="s">
         <v>1468</v>
       </c>
@@ -13736,7 +14329,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="64" t="s">
         <v>1473</v>
       </c>
@@ -13763,7 +14356,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="64" t="s">
         <v>1474</v>
       </c>
@@ -13792,7 +14385,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A47" s="64" t="s">
         <v>1475</v>
       </c>
@@ -13821,7 +14414,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="69" t="s">
         <v>244</v>
       </c>
@@ -13871,29 +14464,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C670A89C-321F-4AAA-826E-C9FC4E9C351A}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F21" sqref="F21"/>
       <selection pane="topRight" activeCell="F21" sqref="F21"/>
       <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
       <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.77734375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="31.77734375" customWidth="1"/>
-    <col min="5" max="9" width="29.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="9" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="196">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="200">
         <v>2019</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -13910,7 +14503,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
         <v>122</v>
       </c>
@@ -13929,7 +14522,7 @@
       <c r="H2" s="74"/>
       <c r="I2" s="74"/>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>44</v>
       </c>
@@ -13948,7 +14541,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="71"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>45</v>
       </c>
@@ -13963,7 +14556,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="71"/>
     </row>
-    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>46</v>
       </c>
@@ -13982,7 +14575,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="71"/>
     </row>
-    <row r="6" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>47</v>
       </c>
@@ -14011,7 +14604,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>48</v>
       </c>
@@ -14040,7 +14633,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>49</v>
       </c>
@@ -14069,7 +14662,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>50</v>
       </c>
@@ -14096,7 +14689,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>51</v>
       </c>
@@ -14125,7 +14718,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>52</v>
       </c>
@@ -14152,7 +14745,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>53</v>
       </c>
@@ -14179,7 +14772,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>54</v>
       </c>
@@ -14206,7 +14799,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>55</v>
       </c>
@@ -14235,7 +14828,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>56</v>
       </c>
@@ -14264,7 +14857,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>57</v>
       </c>
@@ -14293,7 +14886,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>58</v>
       </c>
@@ -14322,7 +14915,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>59</v>
       </c>
@@ -14351,7 +14944,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>61</v>
       </c>
@@ -14380,7 +14973,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>60</v>
       </c>
@@ -14409,7 +15002,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>62</v>
       </c>
@@ -14438,7 +15031,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>63</v>
       </c>
@@ -14467,7 +15060,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="174.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="174.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>64</v>
       </c>
@@ -14496,7 +15089,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>65</v>
       </c>
@@ -14523,7 +15116,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>66</v>
       </c>
@@ -14552,7 +15145,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>67</v>
       </c>
@@ -14579,7 +15172,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>68</v>
       </c>
@@ -14606,7 +15199,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>69</v>
       </c>
@@ -14633,7 +15226,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>70</v>
       </c>
@@ -14662,7 +15255,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>71</v>
       </c>
@@ -14689,7 +15282,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="304.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="304.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>72</v>
       </c>
@@ -14738,21 +15331,21 @@
       <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" style="6" customWidth="1"/>
-    <col min="2" max="3" width="17.44140625" style="6" customWidth="1"/>
-    <col min="4" max="9" width="29.109375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.77734375" style="6"/>
+    <col min="1" max="1" width="14.28515625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="17.42578125" style="6" customWidth="1"/>
+    <col min="4" max="9" width="29.140625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="185">
+    <row r="1" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="189">
         <v>2019</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -14769,7 +15362,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
         <v>122</v>
       </c>
@@ -14788,7 +15381,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>397</v>
       </c>
@@ -14817,7 +15410,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
         <v>402</v>
       </c>
@@ -14846,7 +15439,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
         <v>1029</v>
       </c>
@@ -14873,7 +15466,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="69" t="s">
         <v>406</v>
       </c>
@@ -14902,7 +15495,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A7" s="69" t="s">
         <v>409</v>
       </c>
@@ -14931,7 +15524,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="69" t="s">
         <v>413</v>
       </c>
@@ -14960,7 +15553,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
         <v>1032</v>
       </c>
@@ -14987,7 +15580,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="64" t="s">
         <v>417</v>
       </c>
@@ -15016,7 +15609,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="64" t="s">
         <v>1035</v>
       </c>
@@ -15033,7 +15626,7 @@
       <c r="H11" s="64"/>
       <c r="I11" s="64"/>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="64" t="s">
         <v>420</v>
       </c>
@@ -15062,7 +15655,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>423</v>
       </c>
@@ -15089,7 +15682,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="s">
         <v>426</v>
       </c>
@@ -15118,7 +15711,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="64" t="s">
         <v>430</v>
       </c>
@@ -15147,7 +15740,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="69" t="s">
         <v>434</v>
       </c>
@@ -15176,7 +15769,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="69" t="s">
         <v>437</v>
       </c>
@@ -15205,7 +15798,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
         <v>441</v>
       </c>
@@ -15234,7 +15827,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="69" t="s">
         <v>1037</v>
       </c>
@@ -15251,7 +15844,7 @@
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
         <v>445</v>
       </c>
@@ -15278,7 +15871,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
         <v>447</v>
       </c>
@@ -15307,7 +15900,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="69" t="s">
         <v>449</v>
       </c>
@@ -15336,7 +15929,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="69" t="s">
         <v>451</v>
       </c>
@@ -15365,7 +15958,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="69" t="s">
         <v>453</v>
       </c>
@@ -15392,7 +15985,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="69" t="s">
         <v>456</v>
       </c>
@@ -15421,7 +16014,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="69" t="s">
         <v>458</v>
       </c>
@@ -15450,7 +16043,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
         <v>460</v>
       </c>
@@ -15479,7 +16072,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="69" t="s">
         <v>463</v>
       </c>
@@ -15506,7 +16099,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="69" t="s">
         <v>465</v>
       </c>
@@ -15535,7 +16128,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="69" t="s">
         <v>467</v>
       </c>
@@ -15564,7 +16157,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="69" t="s">
         <v>469</v>
       </c>
@@ -15593,7 +16186,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" s="69" t="s">
         <v>476</v>
       </c>
@@ -15622,7 +16215,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="69" t="s">
         <v>484</v>
       </c>
@@ -15651,7 +16244,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="69" t="s">
         <v>487</v>
       </c>
@@ -15680,7 +16273,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="69"/>
       <c r="B35" s="64" t="s">
         <v>1192</v>
@@ -15693,7 +16286,7 @@
       <c r="H35" s="64"/>
       <c r="I35" s="64"/>
     </row>
-    <row r="36" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="69" t="s">
         <v>489</v>
       </c>
@@ -15720,7 +16313,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="69" t="s">
         <v>492</v>
       </c>
@@ -15749,7 +16342,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="69" t="s">
         <v>494</v>
       </c>
@@ -15778,14 +16371,14 @@
         <v>401</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -15813,28 +16406,28 @@
       <selection pane="bottomRight" activeCell="I29" sqref="G29:I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" style="36" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="17" customWidth="1"/>
     <col min="5" max="5" width="24" style="6" customWidth="1"/>
     <col min="6" max="6" width="16" style="6" customWidth="1"/>
     <col min="7" max="7" width="24" style="49" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="49" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="49" customWidth="1"/>
     <col min="9" max="9" width="24" style="6" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="8.77734375" style="6"/>
+    <col min="10" max="10" width="17.28515625" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="197">
+    <row r="1" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="201">
         <v>2019</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
       <c r="E1" s="59">
         <v>2018</v>
       </c>
@@ -15851,7 +16444,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
         <v>122</v>
       </c>
@@ -15864,16 +16457,16 @@
       <c r="D2" s="78" t="s">
         <v>347</v>
       </c>
-      <c r="E2" s="198" t="s">
+      <c r="E2" s="202" t="s">
         <v>496</v>
       </c>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="200"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="204"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>497</v>
       </c>
@@ -15903,7 +16496,7 @@
       </c>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="153" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>502</v>
       </c>
@@ -15933,7 +16526,7 @@
       </c>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:10" ht="153" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>507</v>
       </c>
@@ -15963,7 +16556,7 @@
       </c>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10" ht="255" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="303.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>510</v>
       </c>
@@ -15993,7 +16586,7 @@
       </c>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>514</v>
       </c>
@@ -16023,7 +16616,7 @@
       </c>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>517</v>
       </c>
@@ -16053,7 +16646,7 @@
       </c>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>521</v>
       </c>
@@ -16082,7 +16675,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="102" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>524</v>
       </c>
@@ -16111,7 +16704,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="124" t="s">
         <v>1046</v>
       </c>
@@ -16140,7 +16733,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="124" t="s">
         <v>1039</v>
       </c>
@@ -16159,7 +16752,7 @@
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
     </row>
-    <row r="13" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="124" t="s">
         <v>1040</v>
       </c>
@@ -16178,7 +16771,7 @@
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
     </row>
-    <row r="14" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="124" t="s">
         <v>1041</v>
       </c>
@@ -16197,7 +16790,7 @@
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
     </row>
-    <row r="15" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="124" t="s">
         <v>1042</v>
       </c>
@@ -16216,7 +16809,7 @@
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
     </row>
-    <row r="16" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="124" t="s">
         <v>1043</v>
       </c>
@@ -16235,7 +16828,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
     </row>
-    <row r="17" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="124" t="s">
         <v>1044</v>
       </c>
@@ -16254,7 +16847,7 @@
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
     </row>
-    <row r="18" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="124" t="s">
         <v>1045</v>
       </c>
@@ -16273,7 +16866,7 @@
       <c r="H18" s="39"/>
       <c r="I18" s="39"/>
     </row>
-    <row r="19" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>530</v>
       </c>
@@ -16302,7 +16895,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="91.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>533</v>
       </c>
@@ -16331,7 +16924,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>1063</v>
       </c>
@@ -16358,7 +16951,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="153" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>538</v>
       </c>
@@ -16387,7 +16980,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="142.80000000000001" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>543</v>
       </c>
@@ -16416,7 +17009,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="224.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="247.5" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>549</v>
       </c>
@@ -16445,7 +17038,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="112.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>555</v>
       </c>
@@ -16474,7 +17067,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>561</v>
       </c>
@@ -16501,7 +17094,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>564</v>
       </c>
@@ -16530,7 +17123,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>567</v>
       </c>
@@ -16557,7 +17150,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="336.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="405" x14ac:dyDescent="0.25">
       <c r="A29" s="120" t="s">
         <v>1004</v>
       </c>
@@ -16586,7 +17179,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>574</v>
       </c>
@@ -16613,7 +17206,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>578</v>
       </c>
@@ -16642,7 +17235,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>1142</v>
       </c>
@@ -16671,7 +17264,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>922</v>
       </c>
@@ -16698,7 +17291,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="255" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="292.5" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>582</v>
       </c>
@@ -16728,7 +17321,7 @@
       </c>
       <c r="J34" s="88"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>585</v>
       </c>
@@ -16755,7 +17348,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>587</v>
       </c>
@@ -16784,7 +17377,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="292.5" x14ac:dyDescent="0.25">
       <c r="A37" s="120" t="s">
         <v>1081</v>
       </c>
@@ -16813,7 +17406,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
         <v>593</v>
       </c>
@@ -16838,7 +17431,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>595</v>
       </c>
@@ -16865,7 +17458,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="193.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>597</v>
       </c>
@@ -16894,7 +17487,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>599</v>
       </c>
@@ -16922,7 +17515,7 @@
       </c>
       <c r="J41" s="88"/>
     </row>
-    <row r="42" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>602</v>
       </c>
@@ -16951,7 +17544,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>604</v>
       </c>
@@ -16980,7 +17573,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
         <v>607</v>
       </c>
@@ -17007,7 +17600,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>609</v>
       </c>
@@ -17036,7 +17629,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>611</v>
       </c>
@@ -17065,7 +17658,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
         <v>614</v>
       </c>
@@ -17092,7 +17685,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>617</v>
       </c>
@@ -17121,7 +17714,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>620</v>
       </c>
@@ -17150,7 +17743,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
         <v>623</v>
       </c>
@@ -17177,7 +17770,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>625</v>
       </c>
@@ -17206,7 +17799,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>627</v>
       </c>
@@ -17235,7 +17828,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>629</v>
       </c>
@@ -17263,7 +17856,7 @@
       </c>
       <c r="J53" s="88"/>
     </row>
-    <row r="54" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
         <v>630</v>
       </c>
@@ -17292,7 +17885,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>631</v>
       </c>
@@ -17320,7 +17913,7 @@
       </c>
       <c r="J55" s="88"/>
     </row>
-    <row r="56" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
         <v>633</v>
       </c>
@@ -17349,7 +17942,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A57" s="28" t="s">
         <v>634</v>
       </c>
@@ -17378,7 +17971,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A58" s="28" t="s">
         <v>1066</v>
       </c>
@@ -17405,7 +17998,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
         <v>640</v>
       </c>
@@ -17434,7 +18027,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="28" t="s">
         <v>645</v>
       </c>
@@ -17463,7 +18056,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="112.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A61" s="28" t="s">
         <v>650</v>
       </c>
@@ -17492,7 +18085,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="28" t="s">
         <v>1069</v>
       </c>
@@ -17521,7 +18114,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A63" s="28" t="s">
         <v>656</v>
       </c>
@@ -17550,7 +18143,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="81.599999999999994" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
         <v>661</v>
       </c>
@@ -17579,7 +18172,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A65" s="28" t="s">
         <v>1072</v>
       </c>
@@ -17606,7 +18199,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="112.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
         <v>666</v>
       </c>
@@ -17635,7 +18228,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="112.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A67" s="31" t="s">
         <v>671</v>
       </c>
@@ -17664,7 +18257,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="149" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" s="149" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="143"/>
       <c r="B68" s="144" t="s">
         <v>1186</v>
@@ -17682,7 +18275,7 @@
       <c r="L68" s="150"/>
       <c r="M68" s="150"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="31" t="s">
         <v>1076</v>
       </c>
@@ -17709,7 +18302,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A70" s="31" t="s">
         <v>675</v>
       </c>
@@ -17736,7 +18329,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A71" s="34" t="s">
         <v>678</v>
       </c>
@@ -17780,31 +18373,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87044700-4676-4D5D-8D3A-08914F1BE71D}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
-    <col min="3" max="3" width="56.88671875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" style="184" customWidth="1"/>
-    <col min="6" max="9" width="19.44140625" style="184" customWidth="1"/>
-    <col min="10" max="10" width="36.21875" style="226" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" style="184" customWidth="1"/>
+    <col min="6" max="9" width="19.42578125" style="184" customWidth="1"/>
+    <col min="10" max="10" width="36.28515625" style="186" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="201">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="205">
         <v>2019</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
       <c r="E1" s="128">
         <v>2018</v>
       </c>
@@ -17821,7 +18414,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="126" t="s">
         <v>122</v>
       </c>
@@ -17840,7 +18433,7 @@
       <c r="H2" s="181"/>
       <c r="I2" s="181"/>
     </row>
-    <row r="3" spans="1:10" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A3" s="129" t="s">
         <v>1082</v>
       </c>
@@ -17870,7 +18463,7 @@
       </c>
       <c r="J3" s="178"/>
     </row>
-    <row r="4" spans="1:10" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A4" s="129" t="s">
         <v>1083</v>
       </c>
@@ -17900,7 +18493,7 @@
       </c>
       <c r="J4" s="180"/>
     </row>
-    <row r="5" spans="1:10" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A5" s="129" t="s">
         <v>1085</v>
       </c>
@@ -17928,9 +18521,9 @@
       <c r="I5" s="179" t="s">
         <v>1656</v>
       </c>
-      <c r="J5" s="227"/>
-    </row>
-    <row r="6" spans="1:10" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J5" s="187"/>
+    </row>
+    <row r="6" spans="1:10" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="129" t="s">
         <v>1084</v>
       </c>
@@ -17958,9 +18551,9 @@
       <c r="I6" s="179" t="s">
         <v>401</v>
       </c>
-      <c r="J6" s="228"/>
-    </row>
-    <row r="7" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="188"/>
+    </row>
+    <row r="7" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="129" t="s">
         <v>1086</v>
       </c>
@@ -17988,9 +18581,9 @@
       <c r="I7" s="183" t="s">
         <v>1657</v>
       </c>
-      <c r="J7" s="227"/>
-    </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J7" s="187"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="129" t="s">
         <v>1087</v>
       </c>
@@ -18019,7 +18612,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="129" t="s">
         <v>1088</v>
       </c>
@@ -18048,7 +18641,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="129" t="s">
         <v>1089</v>
       </c>
@@ -18077,7 +18670,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="129" t="s">
         <v>1090</v>
       </c>
@@ -18106,7 +18699,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="129" t="s">
         <v>1091</v>
       </c>
@@ -18135,7 +18728,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A13" s="129" t="s">
         <v>1092</v>
       </c>
@@ -18164,7 +18757,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A14" s="131" t="s">
         <v>1112</v>
       </c>
@@ -18191,7 +18784,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="131" t="s">
         <v>1113</v>
       </c>
@@ -18220,7 +18813,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="140" t="s">
         <v>1141</v>
       </c>
@@ -18249,7 +18842,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="132" t="s">
         <v>921</v>
       </c>
@@ -18274,7 +18867,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="134" t="s">
         <v>1103</v>
       </c>
@@ -18303,7 +18896,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="134" t="s">
         <v>1104</v>
       </c>
@@ -18332,7 +18925,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="134" t="s">
         <v>1105</v>
       </c>
@@ -18361,7 +18954,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A21" s="134" t="s">
         <v>1106</v>
       </c>
@@ -18390,7 +18983,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A22" s="134" t="s">
         <v>1107</v>
       </c>
@@ -18420,7 +19013,7 @@
       </c>
       <c r="J22" s="178"/>
     </row>
-    <row r="23" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A23" s="134" t="s">
         <v>1108</v>
       </c>
@@ -18449,7 +19042,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="134" t="s">
         <v>1109</v>
       </c>
@@ -18478,7 +19071,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="134" t="s">
         <v>1110</v>
       </c>
@@ -18507,7 +19100,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" s="134" t="s">
         <v>1111</v>
       </c>
@@ -18536,7 +19129,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="137" t="s">
         <v>1114</v>
       </c>
@@ -18563,7 +19156,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="137" t="s">
         <v>1115</v>
       </c>
@@ -18613,28 +19206,28 @@
       <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.77734375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" style="106" customWidth="1"/>
+    <col min="1" max="2" width="13.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="106" customWidth="1"/>
     <col min="5" max="5" width="48" style="105" customWidth="1"/>
     <col min="6" max="6" width="35" style="118" customWidth="1"/>
-    <col min="7" max="12" width="13.77734375" style="10" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="10"/>
+    <col min="7" max="12" width="13.7109375" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="208">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="212">
         <v>2019</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-    </row>
-    <row r="2" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+    </row>
+    <row r="2" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="94" t="s">
         <v>122</v>
       </c>
@@ -18654,7 +19247,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="137.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="119" t="s">
         <v>1586</v>
       </c>
@@ -18664,7 +19257,7 @@
       <c r="C3" s="98" t="s">
         <v>1588</v>
       </c>
-      <c r="D3" s="209" t="s">
+      <c r="D3" s="213" t="s">
         <v>1415</v>
       </c>
       <c r="E3" s="102" t="s">
@@ -18674,7 +19267,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="98" t="s">
         <v>922</v>
       </c>
@@ -18684,13 +19277,13 @@
       <c r="C4" s="97" t="s">
         <v>998</v>
       </c>
-      <c r="D4" s="210"/>
+      <c r="D4" s="214"/>
       <c r="E4" s="102" t="s">
         <v>995</v>
       </c>
       <c r="F4" s="107"/>
     </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="98" t="s">
         <v>607</v>
       </c>
@@ -18700,13 +19293,13 @@
       <c r="C5" s="98" t="s">
         <v>1163</v>
       </c>
-      <c r="D5" s="210"/>
+      <c r="D5" s="214"/>
       <c r="E5" s="102" t="s">
         <v>994</v>
       </c>
       <c r="F5" s="108"/>
     </row>
-    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="97" t="s">
         <v>1411</v>
       </c>
@@ -18716,25 +19309,25 @@
       <c r="C6" s="98" t="s">
         <v>1164</v>
       </c>
-      <c r="D6" s="210"/>
+      <c r="D6" s="214"/>
       <c r="E6" s="102" t="s">
         <v>996</v>
       </c>
       <c r="F6" s="108"/>
     </row>
-    <row r="7" spans="1:6" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="102" x14ac:dyDescent="0.25">
       <c r="A7" s="99" t="s">
         <v>1412</v>
       </c>
       <c r="B7" s="98"/>
       <c r="C7" s="98"/>
-      <c r="D7" s="210"/>
+      <c r="D7" s="214"/>
       <c r="E7" s="155" t="s">
         <v>1413</v>
       </c>
       <c r="F7" s="108"/>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="99" t="s">
         <v>1079</v>
       </c>
@@ -18744,13 +19337,13 @@
       <c r="C8" s="97" t="s">
         <v>1165</v>
       </c>
-      <c r="D8" s="210"/>
+      <c r="D8" s="214"/>
       <c r="E8" s="102" t="s">
         <v>985</v>
       </c>
       <c r="F8" s="108"/>
     </row>
-    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="99" t="s">
         <v>1080</v>
       </c>
@@ -18760,13 +19353,13 @@
       <c r="C9" s="97" t="s">
         <v>1166</v>
       </c>
-      <c r="D9" s="211"/>
+      <c r="D9" s="215"/>
       <c r="E9" s="102" t="s">
         <v>986</v>
       </c>
       <c r="F9" s="108"/>
     </row>
-    <row r="10" spans="1:6" ht="93" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="102" x14ac:dyDescent="0.25">
       <c r="A10" s="96" t="s">
         <v>1589</v>
       </c>
@@ -18776,7 +19369,7 @@
       <c r="C10" s="96" t="s">
         <v>1591</v>
       </c>
-      <c r="D10" s="212" t="s">
+      <c r="D10" s="216" t="s">
         <v>1416</v>
       </c>
       <c r="E10" s="103" t="s">
@@ -18786,7 +19379,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="96" t="s">
         <v>614</v>
       </c>
@@ -18796,13 +19389,13 @@
       <c r="C11" s="96" t="s">
         <v>1167</v>
       </c>
-      <c r="D11" s="212"/>
+      <c r="D11" s="216"/>
       <c r="E11" s="103" t="s">
         <v>924</v>
       </c>
       <c r="F11" s="109"/>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="100" t="s">
         <v>927</v>
       </c>
@@ -18812,7 +19405,7 @@
       <c r="C12" s="100" t="s">
         <v>1168</v>
       </c>
-      <c r="D12" s="213" t="s">
+      <c r="D12" s="217" t="s">
         <v>962</v>
       </c>
       <c r="E12" s="104" t="s">
@@ -18820,7 +19413,7 @@
       </c>
       <c r="F12" s="110"/>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="100" t="s">
         <v>928</v>
       </c>
@@ -18830,13 +19423,13 @@
       <c r="C13" s="100" t="s">
         <v>1169</v>
       </c>
-      <c r="D13" s="214"/>
+      <c r="D13" s="218"/>
       <c r="E13" s="104" t="s">
         <v>952</v>
       </c>
       <c r="F13" s="110"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="100" t="s">
         <v>929</v>
       </c>
@@ -18846,13 +19439,13 @@
       <c r="C14" s="100" t="s">
         <v>1170</v>
       </c>
-      <c r="D14" s="214"/>
+      <c r="D14" s="218"/>
       <c r="E14" s="104" t="s">
         <v>950</v>
       </c>
       <c r="F14" s="110"/>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="100" t="s">
         <v>921</v>
       </c>
@@ -18862,13 +19455,13 @@
       <c r="C15" s="100" t="s">
         <v>997</v>
       </c>
-      <c r="D15" s="214"/>
+      <c r="D15" s="218"/>
       <c r="E15" s="104" t="s">
         <v>953</v>
       </c>
       <c r="F15" s="110"/>
     </row>
-    <row r="16" spans="1:6" s="95" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="95" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="100" t="s">
         <v>936</v>
       </c>
@@ -18878,13 +19471,13 @@
       <c r="C16" s="100" t="s">
         <v>1172</v>
       </c>
-      <c r="D16" s="215"/>
+      <c r="D16" s="219"/>
       <c r="E16" s="104" t="s">
         <v>954</v>
       </c>
       <c r="F16" s="110"/>
     </row>
-    <row r="17" spans="1:6" s="95" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="95" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="156" t="s">
         <v>937</v>
       </c>
@@ -18894,7 +19487,7 @@
       <c r="C17" s="156" t="s">
         <v>1173</v>
       </c>
-      <c r="D17" s="216" t="s">
+      <c r="D17" s="220" t="s">
         <v>961</v>
       </c>
       <c r="E17" s="157" t="s">
@@ -18902,7 +19495,7 @@
       </c>
       <c r="F17" s="111"/>
     </row>
-    <row r="18" spans="1:6" s="95" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="95" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="156" t="s">
         <v>938</v>
       </c>
@@ -18912,13 +19505,13 @@
       <c r="C18" s="156" t="s">
         <v>1174</v>
       </c>
-      <c r="D18" s="216"/>
+      <c r="D18" s="220"/>
       <c r="E18" s="157" t="s">
         <v>988</v>
       </c>
       <c r="F18" s="111"/>
     </row>
-    <row r="19" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="158" t="s">
         <v>942</v>
       </c>
@@ -18936,7 +19529,7 @@
       </c>
       <c r="F19" s="112"/>
     </row>
-    <row r="20" spans="1:6" s="95" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="95" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="162" t="s">
         <v>930</v>
       </c>
@@ -18946,7 +19539,7 @@
       <c r="C20" s="162" t="s">
         <v>1171</v>
       </c>
-      <c r="D20" s="202" t="s">
+      <c r="D20" s="206" t="s">
         <v>959</v>
       </c>
       <c r="E20" s="163" t="s">
@@ -18954,7 +19547,7 @@
       </c>
       <c r="F20" s="113"/>
     </row>
-    <row r="21" spans="1:6" s="95" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="95" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="162" t="s">
         <v>944</v>
       </c>
@@ -18964,13 +19557,13 @@
       <c r="C21" s="162" t="s">
         <v>1176</v>
       </c>
-      <c r="D21" s="203"/>
+      <c r="D21" s="207"/>
       <c r="E21" s="163" t="s">
         <v>955</v>
       </c>
       <c r="F21" s="113"/>
     </row>
-    <row r="22" spans="1:6" s="95" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="95" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="162" t="s">
         <v>946</v>
       </c>
@@ -18980,13 +19573,13 @@
       <c r="C22" s="162" t="s">
         <v>1177</v>
       </c>
-      <c r="D22" s="203"/>
+      <c r="D22" s="207"/>
       <c r="E22" s="163" t="s">
         <v>956</v>
       </c>
       <c r="F22" s="113"/>
     </row>
-    <row r="23" spans="1:6" s="95" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="95" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="162" t="s">
         <v>947</v>
       </c>
@@ -18996,13 +19589,13 @@
       <c r="C23" s="162" t="s">
         <v>1178</v>
       </c>
-      <c r="D23" s="203"/>
+      <c r="D23" s="207"/>
       <c r="E23" s="163" t="s">
         <v>957</v>
       </c>
       <c r="F23" s="113"/>
     </row>
-    <row r="24" spans="1:6" s="95" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="95" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="162" t="s">
         <v>948</v>
       </c>
@@ -19012,13 +19605,13 @@
       <c r="C24" s="162" t="s">
         <v>1179</v>
       </c>
-      <c r="D24" s="204"/>
+      <c r="D24" s="208"/>
       <c r="E24" s="163" t="s">
         <v>958</v>
       </c>
       <c r="F24" s="113"/>
     </row>
-    <row r="25" spans="1:6" s="95" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="95" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="164" t="s">
         <v>968</v>
       </c>
@@ -19036,7 +19629,7 @@
       </c>
       <c r="F25" s="114"/>
     </row>
-    <row r="26" spans="1:6" s="95" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="95" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="167" t="s">
         <v>969</v>
       </c>
@@ -19046,7 +19639,7 @@
       <c r="C26" s="167" t="s">
         <v>1181</v>
       </c>
-      <c r="D26" s="205" t="s">
+      <c r="D26" s="209" t="s">
         <v>976</v>
       </c>
       <c r="E26" s="168" t="s">
@@ -19054,7 +19647,7 @@
       </c>
       <c r="F26" s="115"/>
     </row>
-    <row r="27" spans="1:6" s="95" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="95" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="167" t="s">
         <v>945</v>
       </c>
@@ -19064,13 +19657,13 @@
       <c r="C27" s="167" t="s">
         <v>1182</v>
       </c>
-      <c r="D27" s="205"/>
+      <c r="D27" s="209"/>
       <c r="E27" s="168" t="s">
         <v>975</v>
       </c>
       <c r="F27" s="115"/>
     </row>
-    <row r="28" spans="1:6" s="95" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="95" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="169" t="s">
         <v>972</v>
       </c>
@@ -19088,7 +19681,7 @@
       </c>
       <c r="F28" s="116"/>
     </row>
-    <row r="29" spans="1:6" s="95" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="95" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="138" t="s">
         <v>979</v>
       </c>
@@ -19098,7 +19691,7 @@
       <c r="C29" s="138" t="s">
         <v>1184</v>
       </c>
-      <c r="D29" s="206" t="s">
+      <c r="D29" s="210" t="s">
         <v>1195</v>
       </c>
       <c r="E29" s="138" t="s">
@@ -19106,7 +19699,7 @@
       </c>
       <c r="F29" s="117"/>
     </row>
-    <row r="30" spans="1:6" s="95" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="95" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="138" t="s">
         <v>981</v>
       </c>
@@ -19116,13 +19709,13 @@
       <c r="C30" s="138" t="s">
         <v>1180</v>
       </c>
-      <c r="D30" s="207"/>
+      <c r="D30" s="211"/>
       <c r="E30" s="138" t="s">
         <v>992</v>
       </c>
       <c r="F30" s="117"/>
     </row>
-    <row r="31" spans="1:6" s="95" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="95" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="72"/>
       <c r="B31" s="72"/>
       <c r="C31" s="72"/>
@@ -19132,7 +19725,7 @@
       <c r="E31" s="172"/>
       <c r="F31" s="151"/>
     </row>
-    <row r="32" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="81" t="s">
         <v>1414</v>
       </c>
@@ -19142,7 +19735,7 @@
       <c r="E32" s="105"/>
       <c r="F32" s="118"/>
     </row>
-    <row r="33" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="81"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -19150,7 +19743,7 @@
       <c r="E33" s="105"/>
       <c r="F33" s="118"/>
     </row>
-    <row r="34" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="81" t="s">
         <v>1592</v>
       </c>
@@ -19162,7 +19755,7 @@
       <c r="E34" s="105"/>
       <c r="F34" s="118"/>
     </row>
-    <row r="35" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="81" t="s">
         <v>1593</v>
       </c>
@@ -19174,7 +19767,7 @@
       <c r="E35" s="105"/>
       <c r="F35" s="118"/>
     </row>
-    <row r="36" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="81"/>
       <c r="B36" s="81"/>
       <c r="C36" s="10"/>
@@ -19182,12 +19775,12 @@
       <c r="E36" s="105"/>
       <c r="F36" s="118"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="153" t="s">
         <v>1596</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>1229</v>
       </c>
@@ -19199,7 +19792,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>1231</v>
       </c>
@@ -19211,7 +19804,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>1233</v>
       </c>
@@ -19223,7 +19816,7 @@
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>1235</v>
       </c>
@@ -19235,7 +19828,7 @@
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>1237</v>
       </c>
@@ -19247,7 +19840,7 @@
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>1239</v>
       </c>
@@ -19259,7 +19852,7 @@
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>1241</v>
       </c>
@@ -19271,7 +19864,7 @@
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>1243</v>
       </c>
@@ -19283,7 +19876,7 @@
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>1245</v>
       </c>
@@ -19295,7 +19888,7 @@
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>1247</v>
       </c>
@@ -19307,7 +19900,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>1249</v>
       </c>
@@ -19319,7 +19912,7 @@
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>1251</v>
       </c>
@@ -19331,7 +19924,7 @@
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>1253</v>
       </c>
@@ -19343,7 +19936,7 @@
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>1255</v>
       </c>
@@ -19355,7 +19948,7 @@
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>1257</v>
       </c>
@@ -19367,7 +19960,7 @@
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>1259</v>
       </c>
@@ -19379,7 +19972,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>1261</v>
       </c>
@@ -19391,7 +19984,7 @@
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>1263</v>
       </c>
@@ -19403,7 +19996,7 @@
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>1265</v>
       </c>
@@ -19415,7 +20008,7 @@
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>1267</v>
       </c>
@@ -19427,7 +20020,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>1269</v>
       </c>
@@ -19439,7 +20032,7 @@
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>1271</v>
       </c>
@@ -19451,7 +20044,7 @@
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>1273</v>
       </c>
@@ -19463,7 +20056,7 @@
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>1275</v>
       </c>
@@ -19475,7 +20068,7 @@
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>1277</v>
       </c>
@@ -19487,7 +20080,7 @@
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>1279</v>
       </c>
@@ -19499,7 +20092,7 @@
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>1281</v>
       </c>
@@ -19511,7 +20104,7 @@
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>1283</v>
       </c>
@@ -19523,7 +20116,7 @@
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>1285</v>
       </c>
@@ -19535,7 +20128,7 @@
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>1287</v>
       </c>
@@ -19547,7 +20140,7 @@
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>1289</v>
       </c>
@@ -19559,7 +20152,7 @@
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>1291</v>
       </c>
@@ -19571,7 +20164,7 @@
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>1293</v>
       </c>
@@ -19583,7 +20176,7 @@
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>1295</v>
       </c>
@@ -19595,7 +20188,7 @@
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>1297</v>
       </c>
@@ -19607,7 +20200,7 @@
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>1299</v>
       </c>
@@ -19619,7 +20212,7 @@
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>1301</v>
       </c>
@@ -19631,7 +20224,7 @@
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>1303</v>
       </c>
@@ -19643,7 +20236,7 @@
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>1305</v>
       </c>
@@ -19655,7 +20248,7 @@
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>1307</v>
       </c>
@@ -19667,7 +20260,7 @@
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>1309</v>
       </c>
@@ -19679,7 +20272,7 @@
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>1311</v>
       </c>
@@ -19691,7 +20284,7 @@
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>1312</v>
       </c>
@@ -19703,7 +20296,7 @@
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>1314</v>
       </c>
@@ -19715,7 +20308,7 @@
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>1316</v>
       </c>
@@ -19727,7 +20320,7 @@
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>1318</v>
       </c>
@@ -19739,7 +20332,7 @@
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>1320</v>
       </c>
@@ -19751,7 +20344,7 @@
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>1322</v>
       </c>
@@ -19763,7 +20356,7 @@
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>1324</v>
       </c>
@@ -19775,7 +20368,7 @@
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>1326</v>
       </c>
@@ -19787,7 +20380,7 @@
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>1328</v>
       </c>
@@ -19799,7 +20392,7 @@
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>1330</v>
       </c>
@@ -19811,7 +20404,7 @@
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>1332</v>
       </c>
@@ -19823,7 +20416,7 @@
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>1334</v>
       </c>
@@ -19835,7 +20428,7 @@
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>1336</v>
       </c>
@@ -19847,7 +20440,7 @@
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>1338</v>
       </c>
@@ -19859,7 +20452,7 @@
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>1340</v>
       </c>
@@ -19871,7 +20464,7 @@
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>1342</v>
       </c>
@@ -19883,7 +20476,7 @@
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>1344</v>
       </c>
@@ -19895,7 +20488,7 @@
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>1346</v>
       </c>
@@ -19907,7 +20500,7 @@
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>1348</v>
       </c>
@@ -19919,7 +20512,7 @@
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>1350</v>
       </c>
@@ -19931,7 +20524,7 @@
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>1352</v>
       </c>
@@ -19943,7 +20536,7 @@
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>1354</v>
       </c>
@@ -19955,7 +20548,7 @@
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>1356</v>
       </c>
@@ -19967,7 +20560,7 @@
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>1358</v>
       </c>
@@ -19979,7 +20572,7 @@
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>1360</v>
       </c>
@@ -19991,7 +20584,7 @@
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>1362</v>
       </c>
@@ -20003,7 +20596,7 @@
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>1364</v>
       </c>
@@ -20015,7 +20608,7 @@
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>1366</v>
       </c>
@@ -20027,7 +20620,7 @@
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>1368</v>
       </c>
@@ -20039,7 +20632,7 @@
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>1370</v>
       </c>
@@ -20051,7 +20644,7 @@
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>1372</v>
       </c>
@@ -20063,7 +20656,7 @@
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>1374</v>
       </c>
@@ -20075,7 +20668,7 @@
       <c r="E111" s="10"/>
       <c r="F111" s="10"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>1376</v>
       </c>
@@ -20087,7 +20680,7 @@
       <c r="E112" s="10"/>
       <c r="F112" s="10"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>1378</v>
       </c>
@@ -20099,7 +20692,7 @@
       <c r="E113" s="10"/>
       <c r="F113" s="10"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>1380</v>
       </c>
@@ -20111,7 +20704,7 @@
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>1382</v>
       </c>
@@ -20123,7 +20716,7 @@
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>1384</v>
       </c>
@@ -20135,7 +20728,7 @@
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>1386</v>
       </c>
@@ -20147,7 +20740,7 @@
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>1388</v>
       </c>
@@ -20159,7 +20752,7 @@
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>1390</v>
       </c>
@@ -20171,7 +20764,7 @@
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>1392</v>
       </c>
@@ -20183,7 +20776,7 @@
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>1394</v>
       </c>
@@ -20195,7 +20788,7 @@
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>1396</v>
       </c>
@@ -20207,7 +20800,7 @@
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>1398</v>
       </c>
@@ -20219,7 +20812,7 @@
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>1400</v>
       </c>
@@ -20231,7 +20824,7 @@
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>1402</v>
       </c>
@@ -20243,7 +20836,7 @@
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>1404</v>
       </c>
@@ -20255,7 +20848,7 @@
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>1406</v>
       </c>
@@ -20267,7 +20860,7 @@
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>1408</v>
       </c>
@@ -20303,15 +20896,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002D279E8C12560746A5589ECBE76EDB9C" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="275b98c7b2d1a98f10df1dfa6514a574">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4aae9226-4411-406b-98ce-94e2e69fab2c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed3df33eb7fba4d88da1c8ace1d112b5" ns3:_="">
     <xsd:import namespace="4aae9226-4411-406b-98ce-94e2e69fab2c"/>
@@ -20495,6 +21079,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4E4CF47-E673-4F26-A959-0B7774EBA194}">
   <ds:schemaRefs>
@@ -20512,14 +21105,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D82FA49E-E684-481F-999C-85E775CBBA65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1AF087B-7334-445C-8DFD-4B9828CB55F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20535,4 +21120,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D82FA49E-E684-481F-999C-85E775CBBA65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>